--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>HashSet in Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17-july-2024</t>
+  </si>
+  <si>
+    <t>Problem 5 : Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sorting</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,6 +534,20 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
+    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23-july-2024</t>
+  </si>
+  <si>
+    <t>Problem 6: Search in a  Sorted Rotated Array</t>
+  </si>
+  <si>
+    <t>Modified Binary Search</t>
+  </si>
+  <si>
+    <t>Problem 7: Next Permutation</t>
   </si>
 </sst>
 </file>
@@ -145,11 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +559,28 @@
       </c>
       <c r="D13" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -98,6 +98,36 @@
   </si>
   <si>
     <t>Problem 7: Next Permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Problem 8 : Best Time to Buy And Sell Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem 9:  Find Kth Largest Element In an array </t>
+  </si>
+  <si>
+    <t>Not solved yet</t>
+  </si>
+  <si>
+    <t>Heap knowledge required</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Array (Easy)</t>
+  </si>
+  <si>
+    <t>Array (Easy)</t>
+  </si>
+  <si>
+    <t>Array (Medium)</t>
   </si>
 </sst>
 </file>
@@ -464,28 +494,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="113" customWidth="1"/>
+    <col min="2" max="2" width="97.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +530,11 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -509,16 +544,22 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -531,8 +572,11 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>14</v>
@@ -543,11 +587,14 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -560,8 +607,11 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -574,14 +624,60 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>Array (Medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  27-july-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Problem 10: Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Array(Medium)</t>
+  </si>
+  <si>
+    <t>Two new arrays</t>
+  </si>
+  <si>
+    <t>Problem 11: Product of an Array Self</t>
   </si>
 </sst>
 </file>
@@ -494,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,6 +693,40 @@
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45501</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -143,6 +144,18 @@
   </si>
   <si>
     <t>Problem 11: Product of an Array Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>problem12 :Maximum Product subArray</t>
+  </si>
+  <si>
+    <t>leatcode</t>
+  </si>
+  <si>
+    <t>Aray(Medium)</t>
   </si>
 </sst>
 </file>
@@ -509,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,9 +724,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -726,6 +739,22 @@
       </c>
       <c r="G26" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -146,9 +145,6 @@
     <t>Problem 11: Product of an Array Self</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>problem12 :Maximum Product subArray</t>
   </si>
   <si>
@@ -156,6 +152,18 @@
   </si>
   <si>
     <t>Aray(Medium)</t>
+  </si>
+  <si>
+    <t>Problem 13: Find Minimum Of Rotated Sorted  Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Problem 14: 3sum</t>
   </si>
 </sst>
 </file>
@@ -522,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,18 +751,46 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>40</v>
       </c>
-      <c r="G27" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>38</v>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>Problem 14: 3sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1-Aug-2024</t>
+  </si>
+  <si>
+    <t>Problem 15 :Container with most water</t>
+  </si>
+  <si>
+    <t>Two pointer</t>
+  </si>
+  <si>
+    <t>String(Easy)</t>
+  </si>
+  <si>
+    <t>Problem 16:Valid Palindrome</t>
   </si>
 </sst>
 </file>
@@ -530,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +806,37 @@
       </c>
       <c r="G31" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>Problem 16:Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Problem 17 :Valid Angram</t>
+  </si>
+  <si>
+    <t>Problem 17:Valid parenthesis</t>
+  </si>
+  <si>
+    <t>string(Easy)</t>
+  </si>
+  <si>
+    <t>Problem 17:Longest  common prefix</t>
+  </si>
+  <si>
+    <t>string (easy)</t>
   </si>
 </sst>
 </file>
@@ -545,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,6 +852,42 @@
       </c>
       <c r="G34" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>45506</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -184,16 +184,28 @@
     <t>Problem 17 :Valid Angram</t>
   </si>
   <si>
-    <t>Problem 17:Valid parenthesis</t>
-  </si>
-  <si>
     <t>string(Easy)</t>
   </si>
   <si>
-    <t>Problem 17:Longest  common prefix</t>
-  </si>
-  <si>
     <t>string (easy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                             4-Aug-24</t>
+  </si>
+  <si>
+    <t>Problem 18:Valid parenthesis</t>
+  </si>
+  <si>
+    <t>Problem 19:Longest  common prefix</t>
+  </si>
+  <si>
+    <t>string(easy)</t>
+  </si>
+  <si>
+    <t>Problem 20:Longest Substring Without Repeatation characters</t>
+  </si>
+  <si>
+    <t>HashMap</t>
   </si>
 </sst>
 </file>
@@ -560,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,24 +882,41 @@
         <v>45506</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -199,20 +199,123 @@
     <t>Problem 19:Longest  common prefix</t>
   </si>
   <si>
-    <t>string(easy)</t>
-  </si>
-  <si>
     <t>Problem 20:Longest Substring Without Repeatation characters</t>
   </si>
   <si>
     <t>HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            7-Aug-2024</t>
+  </si>
+  <si>
+    <t>Problem 21:Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leatcode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two slide window </t>
+  </si>
+  <si>
+    <t>String(medium)</t>
+  </si>
+  <si>
+    <t>string(Medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           8-Aug-2024</t>
+  </si>
+  <si>
+    <t>problem 22:Group Anagrams</t>
+  </si>
+  <si>
+    <t>string(medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       14-Aug-2024</t>
+  </si>
+  <si>
+    <t>problem 23:Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Problem 24:Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>String medium</t>
+  </si>
+  <si>
+    <t>two slide window</t>
+  </si>
+  <si>
+    <t>problem 25 :Minimum window substring</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    2D Array</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">             18-aug-2024</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>problem 26:Spiral matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>problem 27: set matrix zeros</t>
+  </si>
+  <si>
+    <t>Problem 28: Rotate image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19-aug-2024</t>
+  </si>
+  <si>
+    <t>problem 29: Word Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                        Leatcode</t>
+  </si>
+  <si>
+    <t>Reverse a LinkedList</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +347,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,12 +376,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,16 +1022,189 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
       <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="G40" t="s">
-        <v>56</v>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B58" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>45525</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>45527</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Merge Two sorted Linked List</t>
   </si>
 </sst>
 </file>
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,6 +1207,20 @@
         <v>10</v>
       </c>
       <c r="G60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>45528</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -313,12 +313,30 @@
   <si>
     <t>Merge Two sorted Linked List</t>
   </si>
+  <si>
+    <t xml:space="preserve">                      27-aug-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove te nth node from end of the list </t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>First Attempt Solved</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +376,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -389,6 +415,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,16 +731,17 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,8 +757,11 @@
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -744,7 +775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -755,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -772,7 +803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>14</v>
@@ -787,10 +818,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -807,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>74</v>
       </c>
@@ -1117,12 +1148,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -1136,7 +1167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -1150,17 +1181,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -1174,12 +1205,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>45525</v>
       </c>
@@ -1196,7 +1227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>45527</v>
       </c>
@@ -1210,7 +1241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>45528</v>
       </c>
@@ -1222,6 +1253,40 @@
       </c>
       <c r="G61" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -330,6 +330,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>merge K Sorted Lists</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have solved it simply I have to solved it with heap </t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Stack +without stack</t>
   </si>
 </sst>
 </file>
@@ -717,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,6 +1302,40 @@
       </c>
       <c r="H64" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>45506</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>45509</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t>Stack +without stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    Binary Tree</t>
+  </si>
+  <si>
+    <t>Subtree of another tree</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate max depth of binary tree </t>
+  </si>
+  <si>
+    <t>I have solved it in first attempt</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
   </si>
 </sst>
 </file>
@@ -732,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,6 +1354,36 @@
       </c>
       <c r="G67" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>45580</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>Invert binary tree</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,6 +455,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,6 +1391,20 @@
       </c>
       <c r="H70" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>45581</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -353,9 +353,6 @@
     <t>Subtree of another tree</t>
   </si>
   <si>
-    <t>Recursion</t>
-  </si>
-  <si>
     <t xml:space="preserve">calculate max depth of binary tree </t>
   </si>
   <si>
@@ -369,6 +366,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  10/23/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSame </t>
   </si>
 </sst>
 </file>
@@ -757,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1379,7 @@
         <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G69" t="s">
         <v>87</v>
@@ -1384,13 +1387,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" t="s">
         <v>104</v>
-      </c>
-      <c r="H70" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,13 +1401,30 @@
         <v>45581</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G71" t="s">
         <v>87</v>
       </c>
       <c r="H71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Detail_About_Problems_I_Solved/Book1.xlsx
+++ b/Detail_About_Problems_I_Solved/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t xml:space="preserve"> Date </t>
   </si>
@@ -373,12 +373,33 @@
   <si>
     <t xml:space="preserve">isSame </t>
   </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>leatcide</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +447,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,10 +488,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,8 +504,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -760,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,6 +1474,45 @@
       </c>
       <c r="H73" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B76" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>45623</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>45626</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
